--- a/templates/AutomationOrg/LocationToLocation.xlsx
+++ b/templates/AutomationOrg/LocationToLocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD097400-351E-4DA0-9ED8-3B4762570E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524631F-78BD-41C2-ACE3-419E471EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,9 +749,6 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>44353</v>
-      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -908,9 +905,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>44353</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -978,7 +973,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,9 +1027,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>44353</v>
-      </c>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1151,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,9 +1201,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>44353</v>
-      </c>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>

--- a/templates/AutomationOrg/LocationToLocation.xlsx
+++ b/templates/AutomationOrg/LocationToLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524631F-78BD-41C2-ACE3-419E471EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FD014-FB38-404A-A220-278833CB3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="44">
   <si>
     <t>Item Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Main (Main Warehouse)</t>
   </si>
   <si>
-    <t>Oh to NN</t>
-  </si>
-  <si>
     <t>OHv (OH vendor)</t>
   </si>
   <si>
@@ -114,24 +111,12 @@
     <t>Main</t>
   </si>
   <si>
-    <t>P2403</t>
-  </si>
-  <si>
     <t>P-QMEQ</t>
   </si>
   <si>
     <t>NN to Ohv</t>
   </si>
   <si>
-    <t>P-X4BI</t>
-  </si>
-  <si>
-    <t>P-JUHL</t>
-  </si>
-  <si>
-    <t>P-96SN</t>
-  </si>
-  <si>
     <t>L101</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
   </si>
   <si>
     <t>LT-1</t>
-  </si>
-  <si>
-    <t>P-ZKWM</t>
   </si>
   <si>
     <t>P-EBLF</t>
@@ -601,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD1048576"/>
+      <selection activeCell="C3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +606,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -663,154 +645,64 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2">
         <v>1005</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>30.545999999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>6.5465999999999998</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>4.6546000000000003</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -883,25 +775,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>4.6546000000000003</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,28 +802,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -939,28 +831,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
       <c r="G4">
         <v>1005</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>30.545999999999999</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -970,10 +862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1014,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1032,16 +924,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1053,91 +945,62 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>1001</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>1001</v>
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1033,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1191,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1206,16 +1069,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1229,19 +1092,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1001</v>
@@ -1250,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1258,51 +1121,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
